--- a/data/tokyo2020_venues_people.xlsx
+++ b/data/tokyo2020_venues_people.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nlint\Dropbox\GitBlog\covid_tokyo2020\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507F02E6-7571-4BA3-93D0-31BB961F5955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17102F2-4351-41FF-A421-23C6112F2043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="750" windowWidth="16090" windowHeight="18720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18590" yWindow="710" windowWidth="16090" windowHeight="18720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="venues" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="381">
   <si>
     <t>venue_name</t>
   </si>
@@ -1175,6 +1175,12 @@
   </si>
   <si>
     <t>「After 14-day quarantine period」は、その入国後14日が経った後に感染が確認された例。ほぼ全てが日本国内での感染例となる（ただし感染から14日以上経った後に陽性となる可能性はゼロではな</t>
+  </si>
+  <si>
+    <t>https://www3.nhk.or.jp/news/html/20210717/k10013144811000.html</t>
+  </si>
+  <si>
+    <t>Olympic foreign media</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1283,8 +1289,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6489,7 +6496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214D4BC7-030E-4408-BE1B-3C8EB1A339A4}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -8301,7 +8308,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>188</v>
       </c>
@@ -8313,7 +8320,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -8324,7 +8331,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>194</v>
       </c>
@@ -8333,7 +8340,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>196</v>
       </c>
@@ -8342,7 +8349,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>198</v>
       </c>
@@ -8351,7 +8358,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>200</v>
       </c>
@@ -8368,7 +8375,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="18" t="s">
         <v>204</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -8379,7 +8386,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="13" t="s">
         <v>207</v>
       </c>
@@ -8396,7 +8403,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="18" t="s">
         <v>211</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -8407,7 +8414,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="1" t="s">
         <v>214</v>
       </c>
@@ -8416,7 +8423,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="18" t="s">
         <v>216</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -8427,7 +8434,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="1" t="s">
         <v>216</v>
       </c>
@@ -8444,7 +8451,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="18" t="s">
         <v>222</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -8455,7 +8462,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="1" t="s">
         <v>225</v>
       </c>
@@ -8464,7 +8471,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="18" t="s">
         <v>227</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -8475,7 +8482,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="1" t="s">
         <v>230</v>
       </c>
@@ -8484,7 +8491,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="1" t="s">
         <v>232</v>
       </c>
@@ -8493,7 +8500,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="1" t="s">
         <v>234</v>
       </c>
@@ -8502,7 +8509,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="1" t="s">
         <v>236</v>
       </c>
@@ -8511,7 +8518,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="18" t="s">
         <v>238</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -8522,7 +8529,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="1" t="s">
         <v>241</v>
       </c>
@@ -8531,7 +8538,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="1" t="s">
         <v>243</v>
       </c>
@@ -8564,7 +8571,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="18" t="s">
         <v>250</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -8575,7 +8582,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="1" t="s">
         <v>253</v>
       </c>
@@ -8584,7 +8591,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="1" t="s">
         <v>255</v>
       </c>
@@ -8660,7 +8667,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="18" t="s">
         <v>273</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -8671,7 +8678,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="1" t="s">
         <v>276</v>
       </c>
@@ -8747,7 +8754,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="18" t="s">
         <v>293</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -8758,7 +8765,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="1" t="s">
         <v>293</v>
       </c>
@@ -8790,8 +8797,8 @@
   </sheetPr>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9189,12 +9196,20 @@
       <c r="B35" s="13">
         <v>11656</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="15"/>
+      <c r="A36" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="B36" s="15">
+        <v>10600</v>
+      </c>
+      <c r="C36" t="s">
+        <v>379</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9430,7 +9445,7 @@
       <c r="A8" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>375</v>
       </c>
     </row>
